--- a/xforms/xlsforms/pregnancy_observation.xlsx
+++ b/xforms/xlsforms/pregnancy_observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="97">
   <si>
     <t>type</t>
   </si>
@@ -298,6 +298,15 @@
   </si>
   <si>
     <t>.&gt; today()</t>
+  </si>
+  <si>
+    <t>processedByMirth</t>
+  </si>
+  <si>
+    <t>processed</t>
+  </si>
+  <si>
+    <t>1=2</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1467,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1892,14 +1901,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>

--- a/xforms/xlsforms/pregnancy_observation.xlsx
+++ b/xforms/xlsforms/pregnancy_observation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="25605" yWindow="-195" windowWidth="15600" windowHeight="11760" tabRatio="500"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
   <si>
     <t>type</t>
   </si>
@@ -304,9 +304,6 @@
   </si>
   <si>
     <t>processed</t>
-  </si>
-  <si>
-    <t>1=2</t>
   </si>
 </sst>
 </file>
@@ -1464,10 +1461,10 @@
   <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
+      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1914,8 +1911,8 @@
       <c r="D20" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="L20" s="5" t="s">
-        <v>96</v>
+      <c r="M20" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">

--- a/xforms/xlsforms/pregnancy_observation.xlsx
+++ b/xforms/xlsforms/pregnancy_observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="101">
   <si>
     <t>type</t>
   </si>
@@ -304,6 +304,21 @@
   </si>
   <si>
     <t>processed</t>
+  </si>
+  <si>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>openhds</t>
+  </si>
+  <si>
+    <t>end group</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
+    <t>OpenHDS preloaded info</t>
   </si>
 </sst>
 </file>
@@ -362,7 +377,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,6 +387,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,7 +759,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -770,6 +791,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1458,13 +1485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1596,159 +1623,167 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+    <row r="5" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
     </row>
     <row r="6" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="I6" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="M6" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="I7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>92</v>
+      <c r="M7" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="I8" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="M8" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="I9" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="4" t="b">
+      <c r="M9" s="5" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="13"/>
+    </row>
     <row r="11" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>84</v>
+      <c r="A11" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>81</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="I12" s="4" t="b">
         <v>1</v>
@@ -1756,183 +1791,186 @@
     </row>
     <row r="13" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="14" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
+      <c r="A14" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I14" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="A15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="I15" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M15" s="5" t="b">
-        <v>1</v>
+      <c r="L15" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="A16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="I16" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M16" s="5" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="17" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="A17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="I17" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M17" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>93</v>
+    </row>
+    <row r="18" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="I18" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="I19" s="4" t="b">
+      <c r="B21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M19" s="5" t="b">
+    </row>
+    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M22" s="5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="M20" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
@@ -1942,7 +1980,6 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
@@ -1962,6 +1999,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
@@ -1973,20 +2011,33 @@
       <c r="G26" s="2"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="30" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I31" s="3"/>
-    </row>
-    <row r="39" spans="9:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I39" s="3"/>
-    </row>
-    <row r="47" spans="9:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="9:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I48" s="3"/>
+    <row r="27" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="32" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="9:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I33" s="3"/>
+    </row>
+    <row r="41" spans="9:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I41" s="3"/>
     </row>
     <row r="49" spans="9:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I49" s="3"/>
@@ -1997,11 +2048,11 @@
     <row r="51" spans="9:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I51" s="3"/>
     </row>
-    <row r="68" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I69" s="3"/>
+    <row r="52" spans="9:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="9:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I53" s="3"/>
     </row>
     <row r="70" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I70" s="3"/>
@@ -2013,11 +2064,9 @@
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="3"/>
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2025,10 +2074,18 @@
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3"/>
       <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3"/>
+      <c r="I77" s="3"/>
     </row>
     <row r="78" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I78" s="3"/>
+    </row>
+    <row r="80" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I80" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xforms/xlsforms/pregnancy_observation.xlsx
+++ b/xforms/xlsforms/pregnancy_observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="103">
   <si>
     <t>type</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>OpenHDS preloaded info</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>concat(${individualId},'_OBS_',${fieldWorkerId})</t>
   </si>
 </sst>
 </file>
@@ -2463,15 +2469,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -2481,8 +2487,11 @@
       <c r="C1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
@@ -2491,6 +2500,9 @@
       </c>
       <c r="C2" t="s">
         <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/xforms/xlsforms/pregnancy_observation.xlsx
+++ b/xforms/xlsforms/pregnancy_observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
   <si>
     <t>type</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>concat(${individualId},'_OBS_',${fieldWorkerId})</t>
+  </si>
+  <si>
+    <t>.&lt;10</t>
   </si>
 </sst>
 </file>
@@ -1493,11 +1496,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1766,7 +1769,9 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="b">
         <v>1</v>
